--- a/TreeRecord/data/test.xlsx
+++ b/TreeRecord/data/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>清远局</t>
   </si>
@@ -70,19 +70,19 @@
     <t>是</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>W</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>棵</t>
   </si>
   <si>
     <t>亩</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3-9</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11-15</t>
   </si>
   <si>
     <t>2017.5.19</t>
@@ -173,6 +173,9 @@
     </r>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>否</t>
   </si>
   <si>
@@ -185,7 +188,7 @@
     <t>桉树</t>
   </si>
   <si>
-    <t>8</t>
+    <t>3-9</t>
   </si>
   <si>
     <t>一般</t>
@@ -274,6 +277,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -282,6 +307,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -291,6 +368,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -307,82 +392,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,20 +412,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -443,6 +446,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -455,25 +482,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,13 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,79 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,18 +603,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,15 +652,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -692,7 +686,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,6 +717,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -722,64 +734,52 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,94 +788,97 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -1276,8 +1279,8 @@
   <sheetPr/>
   <dimension ref="A1:CN4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="BE1" sqref="BE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1347,7 +1350,7 @@
         <v>14</v>
       </c>
       <c r="V1" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W1" s="8" t="s">
         <v>15</v>
@@ -1386,38 +1389,38 @@
       <c r="AI1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AJ1" s="7">
-        <v>2</v>
-      </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AJ1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL1" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AL1" s="7">
-        <v>4</v>
-      </c>
-      <c r="AM1" s="7">
+      <c r="AN1" s="7">
+        <v>100</v>
+      </c>
+      <c r="AO1" s="7">
+        <v>12</v>
+      </c>
+      <c r="AP1" s="3">
         <v>3</v>
       </c>
-      <c r="AN1" s="7">
-        <v>2</v>
-      </c>
-      <c r="AO1" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="3">
-        <v>6</v>
-      </c>
       <c r="AQ1" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AR1" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU1" s="2">
         <v>22</v>
@@ -1426,31 +1429,31 @@
         <v>8</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX1" s="5">
         <v>1</v>
       </c>
       <c r="AY1" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ1" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA1" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB1" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC1" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BD1" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BE1" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BF1" s="2"/>
       <c r="BG1" s="2"/>
@@ -1522,7 +1525,7 @@
         <v>43</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>2</v>
@@ -1537,7 +1540,7 @@
         <v>10</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>12</v>
@@ -1551,13 +1554,13 @@
         <v>15</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AA2" s="11" t="s">
         <v>18</v>
@@ -1569,7 +1572,7 @@
         <v>19</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE2" s="7" t="s">
         <v>21</v>
@@ -1579,10 +1582,10 @@
       </c>
       <c r="AG2" s="7"/>
       <c r="AH2" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ2" s="7">
         <v>1.5</v>
@@ -1601,20 +1604,20 @@
       </c>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU2" s="2">
         <v>22</v>
       </c>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX2" s="5"/>
       <c r="AY2" s="5"/>
@@ -1669,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>3</v>
@@ -1697,19 +1700,19 @@
         <v>8</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>12</v>
@@ -1723,19 +1726,19 @@
         <v>15</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="Z3" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC3" s="11" t="s">
         <v>19</v>
@@ -1751,10 +1754,10 @@
       </c>
       <c r="AG3" s="7"/>
       <c r="AH3" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ3" s="7">
         <v>0.5</v>
@@ -1773,20 +1776,20 @@
       </c>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU3" s="2">
         <v>22</v>
       </c>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX3" s="5"/>
       <c r="AY3" s="5"/>
@@ -1841,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>3</v>
@@ -1869,22 +1872,22 @@
         <v>8</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
@@ -1895,19 +1898,19 @@
         <v>15</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z4" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="AA4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC4" s="11" t="s">
         <v>19</v>
@@ -1923,10 +1926,10 @@
       </c>
       <c r="AG4" s="7"/>
       <c r="AH4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AJ4" s="7">
         <v>0.5</v>
@@ -1945,20 +1948,20 @@
       </c>
       <c r="AQ4" s="3"/>
       <c r="AR4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU4" s="2">
         <v>22</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX4" s="5"/>
       <c r="AY4" s="5"/>
@@ -2006,6 +2009,9 @@
     </row>
   </sheetData>
   <dataValidations count="13">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO1:AQ1 AEC1:AEE4 BHQ1:BHS4 CLE1:CLG4 DOS1:DOU4 ESG1:ESI4 FVU1:FVW4 GZI1:GZK4 ICW1:ICY4 JGK1:JGM4 KJY1:KKA4 LNM1:LNO4 MRA1:MRC4 NUO1:NUQ4 OYC1:OYE4 QBQ1:QBS4 RFE1:RFG4 SIS1:SIU4 TMG1:TMI4 UPU1:UPW4 VTI1:VTK4 WWW1:WWY4 KK1:KM4 ANY1:AOA4 BRM1:BRO4 CVA1:CVC4 DYO1:DYQ4 FCC1:FCE4 GFQ1:GFS4 HJE1:HJG4 IMS1:IMU4 JQG1:JQI4 KTU1:KTW4 LXI1:LXK4 NAW1:NAY4 OEK1:OEM4 PHY1:PIA4 QLM1:QLO4 RPA1:RPC4 SSO1:SSQ4 TWC1:TWE4 UZQ1:UZS4 WDE1:WDG4 UG1:UI4 AXU1:AXW4 CBI1:CBK4 DEW1:DEY4 EIK1:EIM4 FLY1:FMA4 GPM1:GPO4 HTA1:HTC4 IWO1:IWQ4 KAC1:KAE4 LDQ1:LDS4 MHE1:MHG4 NKS1:NKU4 OOG1:OOI4 PRU1:PRW4 QVI1:QVK4 RYW1:RYY4 TCK1:TCM4 UFY1:UGA4 VJM1:VJO4 WNA1:WNC4 AO2:AQ4">
+      <formula1>-10</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q4 JM1:JM4 TI1:TI4 ADE1:ADE4 ANA1:ANA4 AWW1:AWW4 BGS1:BGS4 BQO1:BQO4 CAK1:CAK4 CKG1:CKG4 CUC1:CUC4 DDY1:DDY4 DNU1:DNU4 DXQ1:DXQ4 EHM1:EHM4 ERI1:ERI4 FBE1:FBE4 FLA1:FLA4 FUW1:FUW4 GES1:GES4 GOO1:GOO4 GYK1:GYK4 HIG1:HIG4 HSC1:HSC4 IBY1:IBY4 ILU1:ILU4 IVQ1:IVQ4 JFM1:JFM4 JPI1:JPI4 JZE1:JZE4 KJA1:KJA4 KSW1:KSW4 LCS1:LCS4 LMO1:LMO4 LWK1:LWK4 MGG1:MGG4 MQC1:MQC4 MZY1:MZY4 NJU1:NJU4 NTQ1:NTQ4 ODM1:ODM4 ONI1:ONI4 OXE1:OXE4 PHA1:PHA4 PQW1:PQW4 QAS1:QAS4 QKO1:QKO4 QUK1:QUK4 REG1:REG4 ROC1:ROC4 RXY1:RXY4 SHU1:SHU4 SRQ1:SRQ4 TBM1:TBM4 TLI1:TLI4 TVE1:TVE4 UFA1:UFA4 UOW1:UOW4 UYS1:UYS4 VIO1:VIO4 VSK1:VSK4 WCG1:WCG4 WMC1:WMC4 WVY1:WVY4">
       <formula1>"未砍,翻抽,新种"</formula1>
     </dataValidation>
@@ -2042,9 +2048,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CG1:CG4 MC1:MC4 VY1:VY4 AFU1:AFU4 APQ1:APQ4 AZM1:AZM4 BJI1:BJI4 BTE1:BTE4 CDA1:CDA4 CMW1:CMW4 CWS1:CWS4 DGO1:DGO4 DQK1:DQK4 EAG1:EAG4 EKC1:EKC4 ETY1:ETY4 FDU1:FDU4 FNQ1:FNQ4 FXM1:FXM4 GHI1:GHI4 GRE1:GRE4 HBA1:HBA4 HKW1:HKW4 HUS1:HUS4 IEO1:IEO4 IOK1:IOK4 IYG1:IYG4 JIC1:JIC4 JRY1:JRY4 KBU1:KBU4 KLQ1:KLQ4 KVM1:KVM4 LFI1:LFI4 LPE1:LPE4 LZA1:LZA4 MIW1:MIW4 MSS1:MSS4 NCO1:NCO4 NMK1:NMK4 NWG1:NWG4 OGC1:OGC4 OPY1:OPY4 OZU1:OZU4 PJQ1:PJQ4 PTM1:PTM4 QDI1:QDI4 QNE1:QNE4 QXA1:QXA4 RGW1:RGW4 RQS1:RQS4 SAO1:SAO4 SKK1:SKK4 SUG1:SUG4 TEC1:TEC4 TNY1:TNY4 TXU1:TXU4 UHQ1:UHQ4 URM1:URM4 VBI1:VBI4 VLE1:VLE4 VVA1:VVA4 WEW1:WEW4 WOS1:WOS4 WYO1:WYO4">
       <formula1>"基建签订,班组签订,属地签订,大修技改签订"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO1:AQ4 AEC1:AEE4 BHQ1:BHS4 CLE1:CLG4 DOS1:DOU4 ESG1:ESI4 FVU1:FVW4 GZI1:GZK4 ICW1:ICY4 JGK1:JGM4 KJY1:KKA4 LNM1:LNO4 MRA1:MRC4 NUO1:NUQ4 OYC1:OYE4 QBQ1:QBS4 RFE1:RFG4 SIS1:SIU4 TMG1:TMI4 UPU1:UPW4 VTI1:VTK4 WWW1:WWY4 KK1:KM4 ANY1:AOA4 BRM1:BRO4 CVA1:CVC4 DYO1:DYQ4 FCC1:FCE4 GFQ1:GFS4 HJE1:HJG4 IMS1:IMU4 JQG1:JQI4 KTU1:KTW4 LXI1:LXK4 NAW1:NAY4 OEK1:OEM4 PHY1:PIA4 QLM1:QLO4 RPA1:RPC4 SSO1:SSQ4 TWC1:TWE4 UZQ1:UZS4 WDE1:WDG4 UG1:UI4 AXU1:AXW4 CBI1:CBK4 DEW1:DEY4 EIK1:EIM4 FLY1:FMA4 GPM1:GPO4 HTA1:HTC4 IWO1:IWQ4 KAC1:KAE4 LDQ1:LDS4 MHE1:MHG4 NKS1:NKU4 OOG1:OOI4 PRU1:PRW4 QVI1:QVK4 RYW1:RYY4 TCK1:TCM4 UFY1:UGA4 VJM1:VJO4 WNA1:WNC4">
-      <formula1>-10</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
